--- a/el masreya lel barmageyaat-MS1-P2-A.xlsx
+++ b/el masreya lel barmageyaat-MS1-P2-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10F27C-EA3B-4081-BF1E-8F9BA678B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C72A1-5D3A-4BEF-8E95-2E208AEE3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="1284" windowWidth="17304" windowHeight="10032" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="229">
   <si>
     <t>Team Name</t>
   </si>
@@ -701,6 +701,18 @@
   </si>
   <si>
     <t>Profile and Identity Module (student login, company profiles), Internship Search and Recruitment Module (internship applications)</t>
+  </si>
+  <si>
+    <t>LINKS</t>
+  </si>
+  <si>
+    <t>https://chat.jaay.fun/9vst8</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/67f8fd46-89dc-8007-9e0f-72136eaf00d1</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/67faabbd-a0dc-800e-a99a-f147ad0c9e18</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,6 +1190,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,18 +1215,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,35 +1224,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1461,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1472,61 +1490,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="18" t="s">
         <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="1">
@@ -1534,13 +1552,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="18" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D8" s="1">
@@ -1548,13 +1566,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D9" s="1">
@@ -1562,13 +1580,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D10" s="1">
@@ -1576,13 +1594,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="18" t="s">
         <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="19" t="s">
         <v>196</v>
       </c>
       <c r="D11" s="1">
@@ -1590,10 +1608,38 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2576,10 +2622,14 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{0F563067-294B-4525-94B4-CC50484385F2}"/>
@@ -2587,9 +2637,12 @@
     <hyperlink ref="C9" r:id="rId3" xr:uid="{14D4F15C-ED73-4E1F-9236-279FD0CC7C04}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{EF709153-A567-43A4-BD21-9CBB6542A514}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{44522D9B-157A-46AE-8F65-E2120F0268C4}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{F9A3D642-4269-4193-8600-FEA2635FEC7B}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{CBC3FA3E-68CA-477C-9E4A-22F792E9AEED}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{A55074B7-E04A-48CD-84FE-CD38CD48AEAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2616,38 +2669,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3816,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8E591-CAE2-454F-A475-3E1416686AE6}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4006,10 +4059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="12" customFormat="1" ht="67.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
